--- a/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omar\Desktop\ECO III\contador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Escritorio\Xurtep\XurtepNominas\XurtepNominas\bin\Debug\Archivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -872,57 +872,17 @@
       </c>
     </row>
     <row r="5" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="21">
-        <v>138693.95571599645</v>
-      </c>
-      <c r="C5" s="21">
-        <v>5778.9148214998522</v>
-      </c>
-      <c r="D5" s="21">
-        <v>1541.0439523999607</v>
-      </c>
-      <c r="E5" s="21">
-        <v>6164.1758104288538</v>
-      </c>
-      <c r="F5" s="21">
-        <v>12898.537882538962</v>
-      </c>
-      <c r="G5" s="21">
-        <v>12898.537882538962</v>
-      </c>
-      <c r="H5" s="21">
-        <v>2773.8791150660409</v>
-      </c>
-      <c r="I5" s="21">
-        <v>5778.9148213444105</v>
-      </c>
-      <c r="J5" s="21">
-        <f>SUM(B5:I5)</f>
-        <v>186527.96000181345</v>
-      </c>
-      <c r="K5" s="21">
-        <v>208497.45352683874</v>
-      </c>
-      <c r="L5" s="21">
-        <v>3730.5592000362703</v>
-      </c>
-      <c r="M5" s="21">
-        <v>4169.9490705367753</v>
-      </c>
-      <c r="N5" s="21">
-        <v>26751.711025344441</v>
-      </c>
       <c r="O5" s="21">
         <f>J5+K5+L5+M5+N5</f>
-        <v>429677.63282456965</v>
+        <v>0</v>
       </c>
       <c r="P5" s="21">
         <f>O5*16%</f>
-        <v>68748.42125193114</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="21">
         <f>O5+P5</f>
-        <v>498426.05407650082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
@@ -992,7 +952,7 @@
       </c>
       <c r="E10" s="21">
         <f>B5</f>
-        <v>138693.95571599645</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="24"/>
     </row>
@@ -1028,7 +988,7 @@
       </c>
       <c r="E13" s="21">
         <f>F5+G5+H5+I5</f>
-        <v>34349.869701488373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
@@ -1044,7 +1004,7 @@
       </c>
       <c r="E14" s="21">
         <f>C5</f>
-        <v>5778.9148214998522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:17" x14ac:dyDescent="0.25">
@@ -1060,7 +1020,7 @@
       </c>
       <c r="E15" s="21">
         <f>E5</f>
-        <v>6164.1758104288538</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.25">
@@ -1076,7 +1036,7 @@
       </c>
       <c r="E16" s="21">
         <f>D5</f>
-        <v>1541.0439523999607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,7 +1052,7 @@
       </c>
       <c r="E17" s="21">
         <f>K5</f>
-        <v>208497.45352683874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,7 +1137,7 @@
       </c>
       <c r="E23" s="21">
         <f>L5+M5</f>
-        <v>7900.5082705730456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,7 +1148,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="21">
         <f>SUM(E10:E23)</f>
-        <v>429677.62813255866</v>
+        <v>26751.706333333335</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1199,7 +1159,7 @@
       <c r="D25" s="17"/>
       <c r="E25" s="22">
         <f>E24*16%</f>
-        <v>68748.420501209388</v>
+        <v>4280.2730133333334</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1210,7 +1170,7 @@
       <c r="D26" s="20"/>
       <c r="E26" s="23">
         <f>E24+E25</f>
-        <v>498426.04863376805</v>
+        <v>31031.979346666667</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
@@ -790,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,9 +1066,7 @@
         <f>+N6</f>
         <v>⑬</v>
       </c>
-      <c r="E18" s="21">
-        <v>13825.253333333334</v>
-      </c>
+      <c r="E18" s="21"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
@@ -1081,9 +1079,7 @@
         <f>+N6</f>
         <v>⑬</v>
       </c>
-      <c r="E19" s="21">
-        <v>5852.3070000000007</v>
-      </c>
+      <c r="E19" s="21"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
@@ -1096,9 +1092,7 @@
         <f>+N6</f>
         <v>⑬</v>
       </c>
-      <c r="E20" s="21">
-        <v>4663.1990000000005</v>
-      </c>
+      <c r="E20" s="21"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
@@ -1111,9 +1105,7 @@
         <f>+N6</f>
         <v>⑬</v>
       </c>
-      <c r="E21" s="21">
-        <v>2410.9470000000001</v>
-      </c>
+      <c r="E21" s="21"/>
     </row>
     <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
@@ -1148,7 +1140,7 @@
       <c r="D24" s="17"/>
       <c r="E24" s="21">
         <f>SUM(E10:E23)</f>
-        <v>26751.706333333335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,7 +1151,7 @@
       <c r="D25" s="17"/>
       <c r="E25" s="22">
         <f>E24*16%</f>
-        <v>4280.2730133333334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1170,7 +1162,13 @@
       <c r="D26" s="20"/>
       <c r="E26" s="23">
         <f>E24+E25</f>
-        <v>31031.979346666667</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E27" s="24">
+        <f>Q5-E26</f>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">

--- a/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="69">
   <si>
     <t>Conceptos que se utilizan en el pago de la nómina del personal de la planta proceso de ECO III</t>
   </si>
@@ -211,6 +211,21 @@
   </si>
   <si>
     <t>Comisión 2%</t>
+  </si>
+  <si>
+    <t>RETENCION 6%</t>
+  </si>
+  <si>
+    <t>RETENCIONES</t>
+  </si>
+  <si>
+    <t>XURTEP</t>
+  </si>
+  <si>
+    <t>ANTICIPOS ASIMILADOS</t>
+  </si>
+  <si>
+    <t>Retencion 6%</t>
   </si>
 </sst>
 </file>
@@ -220,7 +235,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +284,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -308,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -431,6 +453,24 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -438,7 +478,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -483,6 +523,11 @@
     <xf numFmtId="43" fontId="5" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -788,10 +833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Q28"/>
+  <dimension ref="A2:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,22 +851,22 @@
     <col min="8" max="8" width="12.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" style="2" customWidth="1"/>
     <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="14" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13" style="2" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="13" style="2" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="13" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="11" max="12" width="14.42578125" style="2" customWidth="1"/>
+    <col min="13" max="14" width="14" style="2" customWidth="1"/>
+    <col min="15" max="16" width="13" style="2" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" customWidth="1"/>
+    <col min="19" max="20" width="13.140625" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:17" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:21" s="4" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
@@ -853,39 +898,55 @@
         <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="N4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="P4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="R4" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="T4" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="U4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="O5" s="21">
-        <f>J5+K5+L5+M5+N5</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="21">
-        <f>O5*16%</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="21">
-        <f>O5+P5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R5" s="21">
+        <f>J5+K5+L5+M5+O5+Q5</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="21">
+        <f>R5*16%</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="21">
+        <f>+(N5+P5+M5+Q5)*6%</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="21">
+        <f>R5+S5-T5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
@@ -914,17 +975,22 @@
         <v>24</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="5"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
         <v>28</v>
       </c>
@@ -935,11 +1001,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D9" s="5"/>
-      <c r="Q9" s="24"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="U9" s="24"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>31</v>
       </c>
@@ -954,9 +1020,9 @@
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="24"/>
-    </row>
-    <row r="11" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="24"/>
+    </row>
+    <row r="11" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>33</v>
       </c>
@@ -966,7 +1032,7 @@
       <c r="D11" s="14"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="2:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>33</v>
       </c>
@@ -976,7 +1042,7 @@
       <c r="D12" s="14"/>
       <c r="E12" s="21"/>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
@@ -991,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>40</v>
       </c>
@@ -1023,7 +1089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>42</v>
       </c>
@@ -1051,7 +1117,7 @@
         <v>⑨</v>
       </c>
       <c r="E17" s="21">
-        <f>K5</f>
+        <f>K5+L5</f>
         <v>0</v>
       </c>
     </row>
@@ -1063,7 +1129,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="15" t="str">
-        <f>+N6</f>
+        <f>+Q6</f>
         <v>⑬</v>
       </c>
       <c r="E18" s="21"/>
@@ -1076,7 +1142,7 @@
         <v>49</v>
       </c>
       <c r="D19" s="15" t="str">
-        <f>+N6</f>
+        <f>+Q6</f>
         <v>⑬</v>
       </c>
       <c r="E19" s="21"/>
@@ -1089,7 +1155,7 @@
         <v>51</v>
       </c>
       <c r="D20" s="15" t="str">
-        <f>+N6</f>
+        <f>+Q6</f>
         <v>⑬</v>
       </c>
       <c r="E20" s="21"/>
@@ -1102,7 +1168,7 @@
         <v>53</v>
       </c>
       <c r="D21" s="15" t="str">
-        <f>+N6</f>
+        <f>+Q6</f>
         <v>⑬</v>
       </c>
       <c r="E21" s="21"/>
@@ -1128,7 +1194,7 @@
         <v>57</v>
       </c>
       <c r="E23" s="21">
-        <f>L5+M5</f>
+        <f>M5+O5</f>
         <v>0</v>
       </c>
     </row>
@@ -1154,28 +1220,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+    <row r="26" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="27"/>
+      <c r="C26" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30">
+        <f>+T5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="23">
+      <c r="D27" s="20"/>
+      <c r="E27" s="23">
         <f>E24+E25</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E27" s="24">
-        <f>Q5-E26</f>
-        <v>0</v>
-      </c>
-    </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="E28" s="24">
+        <f>U5-E27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
     </row>

--- a/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
+++ b/XurtepNominas/bin/Debug/Archivos/contadorprocesos.xlsx
@@ -210,9 +210,6 @@
     <t>SUBTOTAL</t>
   </si>
   <si>
-    <t>Comisión 2%</t>
-  </si>
-  <si>
     <t>RETENCION 6%</t>
   </si>
   <si>
@@ -226,6 +223,9 @@
   </si>
   <si>
     <t>Retencion 6%</t>
+  </si>
+  <si>
+    <t>Comisión 4% y 3.5%</t>
   </si>
 </sst>
 </file>
@@ -835,8 +835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -898,19 +898,19 @@
         <v>10</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>13</v>
@@ -922,7 +922,7 @@
         <v>14</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>15</v>
@@ -1188,7 +1188,7 @@
         <v>56</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D23" s="16" t="s">
         <v>57</v>
@@ -1223,7 +1223,7 @@
     <row r="26" spans="1:5" s="26" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="D27" s="20"/>
       <c r="E27" s="23">
-        <f>E24+E25</f>
+        <f>E24+E25-E26</f>
         <v>0</v>
       </c>
     </row>
